--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/10.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/10.xlsx
@@ -479,13 +479,13 @@
         <v>-0.02584727997625593</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.493697671195998</v>
+        <v>-2.48513886928709</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0695674154515119</v>
+        <v>-0.0615940928270595</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1937697783209628</v>
+        <v>0.1896801836183276</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0120504148162952</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.691213706958171</v>
+        <v>-2.680157492789765</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.119524420930044</v>
+        <v>-0.1152464800236815</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2476820540777666</v>
+        <v>0.244204219525222</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.001723412274165222</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.979742570491185</v>
+        <v>-2.965038426167644</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2162000452214725</v>
+        <v>-0.2088983447188381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2621686512357627</v>
+        <v>0.2589769861090362</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.01479356219779734</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.196087386433718</v>
+        <v>-3.177973299793859</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3017325824830859</v>
+        <v>-0.2970341477265417</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2708427969438512</v>
+        <v>0.267119674312034</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.03026740943307773</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.24558666683575</v>
+        <v>-3.229564829110164</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.353336522208163</v>
+        <v>-0.3491082229368914</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3019097002222065</v>
+        <v>0.2986143716810256</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.05306044738002674</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.030131750204626</v>
+        <v>-3.013567504613267</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4113135718500565</v>
+        <v>-0.4055288613138762</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2995079211126617</v>
+        <v>0.296865234068117</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.08954522606617883</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.676443860470539</v>
+        <v>-2.656309067272863</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5153726593372103</v>
+        <v>-0.5114349096360297</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2836459586530296</v>
+        <v>0.2839219077422114</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1430384764702636</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.246987505082791</v>
+        <v>-2.227790792783523</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5176590946475734</v>
+        <v>-0.5148908434672105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2818296588279392</v>
+        <v>0.2840065905314841</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.2219342480289148</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.867077151635984</v>
+        <v>-1.850883758259715</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5885634100863726</v>
+        <v>-0.585437447123737</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2968871347894806</v>
+        <v>0.3000364585215707</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3359052510031225</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.363054680197437</v>
+        <v>-1.346034899601715</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7246559526880633</v>
+        <v>-0.7244559260996087</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3098436015482044</v>
+        <v>0.3143186489468396</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.492138587790821</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.81456425407813</v>
+        <v>-0.7915728767905907</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8874892760747468</v>
+        <v>-0.8916153719796548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3564935981008283</v>
+        <v>0.3610504081925543</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.6921443901829357</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3107264787230835</v>
+        <v>-0.2857392156952721</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.189617027526484</v>
+        <v>-1.188627114920848</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3898615371704556</v>
+        <v>0.395676908716545</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.9260630464561602</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2871281733498469</v>
+        <v>0.3112861290620222</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.618472573124823</v>
+        <v>-1.615248786940097</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4883855823449746</v>
+        <v>0.4930285352740643</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.177427197511382</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9048686804209537</v>
+        <v>0.9270847721722205</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.018500199192216</v>
+        <v>-2.011979624418218</v>
       </c>
       <c r="G15" t="n">
-        <v>0.573039170655861</v>
+        <v>0.5791626123491321</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.426855591362763</v>
       </c>
       <c r="E16" t="n">
-        <v>1.391946563740459</v>
+        <v>1.418859630200179</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.408235216242748</v>
+        <v>-2.396231430863342</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6932405498361014</v>
+        <v>0.6997348437444634</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.663763189329612</v>
       </c>
       <c r="E17" t="n">
-        <v>1.931638740063951</v>
+        <v>1.95559374909149</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.764939565332652</v>
+        <v>-2.751316586620428</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8080645718975251</v>
+        <v>0.8138098611352509</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.895644055979737</v>
       </c>
       <c r="E18" t="n">
-        <v>2.338596484394841</v>
+        <v>2.362367527362926</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.103777305934106</v>
+        <v>-3.091958946662246</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9419831028918528</v>
+        <v>0.9495271713775781</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.127532812214878</v>
       </c>
       <c r="E19" t="n">
-        <v>2.78261754951345</v>
+        <v>2.806496636040261</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.376324483064033</v>
+        <v>-3.363213981231719</v>
       </c>
       <c r="G19" t="n">
-        <v>1.117616667891533</v>
+        <v>1.127137641492349</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.354240979014008</v>
       </c>
       <c r="E20" t="n">
-        <v>3.092807686523185</v>
+        <v>3.116475066076815</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.648149666413005</v>
+        <v>-3.635850221295191</v>
       </c>
       <c r="G20" t="n">
-        <v>1.258292301450586</v>
+        <v>1.267899417888765</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.56521842458233</v>
       </c>
       <c r="E21" t="n">
-        <v>3.427717897760095</v>
+        <v>3.456765554528723</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.872535697216218</v>
+        <v>-3.86129989713263</v>
       </c>
       <c r="G21" t="n">
-        <v>1.376601458305009</v>
+        <v>1.387402894081551</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.747115249840533</v>
       </c>
       <c r="E22" t="n">
-        <v>3.743908832423464</v>
+        <v>3.77550719320691</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.039388532997173</v>
+        <v>-4.030601963586085</v>
       </c>
       <c r="G22" t="n">
-        <v>1.44652900157099</v>
+        <v>1.45840211264626</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.893005441276367</v>
       </c>
       <c r="E23" t="n">
-        <v>3.942300167016138</v>
+        <v>3.973434232506675</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.155219258217278</v>
+        <v>-4.145818008559917</v>
       </c>
       <c r="G23" t="n">
-        <v>1.529976590158786</v>
+        <v>1.53935009890242</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.998800428205188</v>
       </c>
       <c r="E24" t="n">
-        <v>4.101189900509278</v>
+        <v>4.134391394096541</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.220255640378715</v>
+        <v>-4.210772628028264</v>
       </c>
       <c r="G24" t="n">
-        <v>1.580870946511681</v>
+        <v>1.591302990121224</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.059741482267622</v>
       </c>
       <c r="E25" t="n">
-        <v>4.200512591989523</v>
+        <v>4.229504766930697</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.253669570963207</v>
+        <v>-4.246809535008072</v>
       </c>
       <c r="G25" t="n">
-        <v>1.59724100570695</v>
+        <v>1.608487756151219</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.076767162780107</v>
       </c>
       <c r="E26" t="n">
-        <v>4.229488706401697</v>
+        <v>4.259545256401144</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.170289144587593</v>
+        <v>-4.167217933428367</v>
       </c>
       <c r="G26" t="n">
-        <v>1.553076011005052</v>
+        <v>1.566661758490958</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.054467737034066</v>
       </c>
       <c r="E27" t="n">
-        <v>4.189570991596254</v>
+        <v>4.220795580068427</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.103988360779429</v>
+        <v>-4.10105877428502</v>
       </c>
       <c r="G27" t="n">
-        <v>1.526268068007878</v>
+        <v>1.541356204979328</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.999041321918853</v>
       </c>
       <c r="E28" t="n">
-        <v>4.142579343790357</v>
+        <v>4.173719249473257</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.939944657525382</v>
+        <v>-3.938454678448609</v>
       </c>
       <c r="G28" t="n">
-        <v>1.440004046652719</v>
+        <v>1.457854594612169</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.918094541564297</v>
       </c>
       <c r="E29" t="n">
-        <v>3.989696248143216</v>
+        <v>4.018015340914482</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.772603435658017</v>
+        <v>-3.771348524323881</v>
       </c>
       <c r="G29" t="n">
-        <v>1.337642995095292</v>
+        <v>1.353894790395197</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.819633026390226</v>
       </c>
       <c r="E30" t="n">
-        <v>3.889608491463334</v>
+        <v>3.916290870324691</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.612136850226697</v>
+        <v>-3.613117272519742</v>
       </c>
       <c r="G30" t="n">
-        <v>1.248677884771952</v>
+        <v>1.265869951042402</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.709364439894617</v>
       </c>
       <c r="E31" t="n">
-        <v>3.732716103758558</v>
+        <v>3.758063998664824</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.465463339110191</v>
+        <v>-3.4642252183291</v>
       </c>
       <c r="G31" t="n">
-        <v>1.151670829563887</v>
+        <v>1.171022306960791</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.592523509138884</v>
       </c>
       <c r="E32" t="n">
-        <v>3.573503699637328</v>
+        <v>3.596084803411322</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.278243562485105</v>
+        <v>-3.280535837987832</v>
       </c>
       <c r="G32" t="n">
-        <v>1.036308049756918</v>
+        <v>1.052018167215096</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.472410606372806</v>
       </c>
       <c r="E33" t="n">
-        <v>3.394360179027104</v>
+        <v>3.416125115918279</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.13617577307137</v>
+        <v>-3.139690108826187</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9827607860228419</v>
+        <v>0.9982533563154741</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.350034166722569</v>
       </c>
       <c r="E34" t="n">
-        <v>3.200513974141428</v>
+        <v>3.21753229468906</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.118199660976102</v>
+        <v>-3.119472092887329</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8879087617969582</v>
+        <v>0.8996636089768641</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.22791706155208</v>
       </c>
       <c r="E35" t="n">
-        <v>2.901931219454418</v>
+        <v>2.910361537131324</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.000824934899861</v>
+        <v>-3.003157361725088</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8390511725308805</v>
+        <v>0.8497956664318775</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.105553500443029</v>
       </c>
       <c r="E36" t="n">
-        <v>2.615274137573949</v>
+        <v>2.628217463899855</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.943784506108285</v>
+        <v>-2.945837333724103</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7726832265105347</v>
+        <v>0.7804740431236235</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.982062893264724</v>
       </c>
       <c r="E37" t="n">
-        <v>2.355568083403564</v>
+        <v>2.363645069442471</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.877020157031258</v>
+        <v>-2.879381054794258</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7233905429133661</v>
+        <v>0.7295694664340917</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.859215213881639</v>
       </c>
       <c r="E38" t="n">
-        <v>2.047702342954556</v>
+        <v>2.05540555668219</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.801780958810551</v>
+        <v>-2.804718575569459</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6475001632441137</v>
+        <v>0.6538396920548393</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.735735710674145</v>
       </c>
       <c r="E39" t="n">
-        <v>1.762280461758996</v>
+        <v>1.766184630354086</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.680380880147674</v>
+        <v>-2.683551374577083</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6223829559362114</v>
+        <v>0.6275413058413918</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.612238775658144</v>
       </c>
       <c r="E40" t="n">
-        <v>1.525143830977878</v>
+        <v>1.523501276875606</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.561849795983433</v>
+        <v>-2.566420476532023</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5493250695633219</v>
+        <v>0.5543695357174114</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.490027050330118</v>
       </c>
       <c r="E41" t="n">
-        <v>1.280337567575216</v>
+        <v>1.279389996364217</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.448066058186782</v>
+        <v>-2.45277836340019</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4864583188649751</v>
+        <v>0.4904661508745196</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.368176883079576</v>
       </c>
       <c r="E42" t="n">
-        <v>1.065820001818456</v>
+        <v>1.061651564518912</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.329960578041042</v>
+        <v>-2.333590987619086</v>
       </c>
       <c r="G42" t="n">
-        <v>0.418224431384448</v>
+        <v>0.4227637208990832</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.249038642976503</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8626309491990559</v>
+        <v>0.8572857131382392</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.22646798921316</v>
+        <v>-2.23054079336275</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3622797686850994</v>
+        <v>0.3643982984650079</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.132919070064496</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7001757782679178</v>
+        <v>0.6950714501421009</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.164164087053859</v>
+        <v>-2.167936121296721</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2732781571594869</v>
+        <v>0.2737176316348505</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.019731017682265</v>
       </c>
       <c r="E45" t="n">
-        <v>0.521451291459784</v>
+        <v>0.5158257261655127</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.059396876242614</v>
+        <v>-2.062477577714431</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2406417021834048</v>
+        <v>0.2412447020449501</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9120247863133338</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3527091534491929</v>
+        <v>0.3456790218914675</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.986097351910679</v>
+        <v>-1.989904427307724</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2158880468501387</v>
+        <v>0.2163844632010477</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8097196896007127</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1780698811994216</v>
+        <v>0.1668713123421519</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.927656736999922</v>
+        <v>-1.933475758666239</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1463430361839756</v>
+        <v>0.1463021548374301</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7144218426063261</v>
       </c>
       <c r="E48" t="n">
-        <v>0.05312918591609151</v>
+        <v>0.04380677885563947</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.876845603388208</v>
+        <v>-1.878445086071799</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1332683055298882</v>
+        <v>0.1339136467860698</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6275264476231621</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.08034549045859991</v>
+        <v>-0.0875274670177798</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.803345322443774</v>
+        <v>-1.805466042295818</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08202791777944739</v>
+        <v>0.08285722509508353</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5480648111472182</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1858222846420261</v>
+        <v>-0.1945212511676602</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.780051715201416</v>
+        <v>-1.77992907116178</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04580704474018438</v>
+        <v>0.04578806411500257</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4774988496104769</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3000710477556318</v>
+        <v>-0.3099059316959928</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.726361366754431</v>
+        <v>-1.728003920856703</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04286358778891245</v>
+        <v>0.0430052124537306</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4151692643337954</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3554127105934352</v>
+        <v>-0.362755292442615</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.718820218364887</v>
+        <v>-1.721787036085614</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.02064558406943413</v>
+        <v>-0.01892418737025278</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3601417209893977</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4562932733866808</v>
+        <v>-0.4639045040845878</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.711173946512798</v>
+        <v>-1.713784512499343</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.02434388588370587</v>
+        <v>-0.02321672875752435</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3122992968333712</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.4903284544338535</v>
+        <v>-0.4946224558692159</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.697058201569893</v>
+        <v>-1.697429053784984</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.05929159698769648</v>
+        <v>-0.05710298489942434</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2701620110835146</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6114029423724573</v>
+        <v>-0.6156794232307289</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.675778000644899</v>
+        <v>-1.677607440902807</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08425841934223523</v>
+        <v>-0.08366417976923539</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2331010305219891</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6945380806687986</v>
+        <v>-0.6979648135381613</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.638152561342182</v>
+        <v>-1.636004830600455</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.105243690552866</v>
+        <v>-0.1034478314010483</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2009187593538843</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8231595571893096</v>
+        <v>-0.8292756986421261</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.677118324792353</v>
+        <v>-1.676566426613989</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1064044287851384</v>
+        <v>-0.1037486013077755</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1726480485867599</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.8939018072900178</v>
+        <v>-0.8978074359331986</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.648096948889361</v>
+        <v>-1.644617654288725</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1492772809265814</v>
+        <v>-0.1478259931242182</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1487399149288177</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.011607964282895</v>
+        <v>-1.016753173755258</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.66013066525463</v>
+        <v>-1.653763395530177</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1718525445082117</v>
+        <v>-0.1714232903694846</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1289237656137467</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.04879538915834</v>
+        <v>-1.051175267546521</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.658950946397176</v>
+        <v>-1.655846884155904</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1847768902089355</v>
+        <v>-0.1851229216064809</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1131758028823581</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.131715900385318</v>
+        <v>-1.133473798286772</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.702391757245983</v>
+        <v>-1.696246414831348</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2434752036077379</v>
+        <v>-0.2410048022379204</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.1014155257139129</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.186000488405303</v>
+        <v>-1.186029689367121</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.705961574828254</v>
+        <v>-1.698191198888438</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2896565247231801</v>
+        <v>-0.287435791576908</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.09289891174137542</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.257618767360557</v>
+        <v>-1.258334190925102</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.754765142314968</v>
+        <v>-1.749005252596334</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3076078160009025</v>
+        <v>-0.3058119568490849</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.0869462666687523</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.327842700388992</v>
+        <v>-1.330546709453355</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.787348305535732</v>
+        <v>-1.780808020112507</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3542519723611627</v>
+        <v>-0.3543716963046172</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.0829739656772476</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.345944376620078</v>
+        <v>-1.353294258709713</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.872189510026301</v>
+        <v>-1.864113254011439</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3509902249260727</v>
+        <v>-0.3526371591726177</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.08011483749321335</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.373172813467435</v>
+        <v>-1.379734269587978</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.980777666691453</v>
+        <v>-1.971418758428729</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3821403509456098</v>
+        <v>-0.3834091327366094</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.07768100043886574</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.416054425897423</v>
+        <v>-1.421771974221421</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.055637982432569</v>
+        <v>-2.045708195366299</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3545235413060718</v>
+        <v>-0.3557397613657987</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.07530444631256024</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.44407128871387</v>
+        <v>-1.450374316322323</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.167987953003948</v>
+        <v>-2.156014098610406</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4177903451813275</v>
+        <v>-0.4207673832386903</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.07242462655707707</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.442839008125143</v>
+        <v>-1.449194597464869</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.312882395521682</v>
+        <v>-2.302573725975821</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4355664306881409</v>
+        <v>-0.4367665902188678</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.06924692540124693</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.463901661884592</v>
+        <v>-1.4676262445645</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.435441022344695</v>
+        <v>-2.425789374439743</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4524737875808637</v>
+        <v>-0.4525438698892272</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.06635231398297091</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.499344329291401</v>
+        <v>-1.506746773112308</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.595643339071561</v>
+        <v>-2.586489567565609</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5112421832880296</v>
+        <v>-0.5118189022839386</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.0643454589564976</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.503398882839854</v>
+        <v>-1.512080328788397</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.691309340108126</v>
+        <v>-2.680804294094038</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.528987607784934</v>
+        <v>-0.529403721490843</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.06376390986112836</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.486052051471768</v>
+        <v>-1.496927949700947</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.809552794798458</v>
+        <v>-2.801276512195142</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5338072265330236</v>
+        <v>-0.5321150307956605</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.06472349609337257</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.537974281680663</v>
+        <v>-1.548206298701751</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.941898123974831</v>
+        <v>-2.933110824539698</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5428493043600212</v>
+        <v>-0.5400109708712947</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.06762035720439812</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.413556283613878</v>
+        <v>-1.427707069710966</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.000792813841861</v>
+        <v>-2.995256311481135</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.57789045854183</v>
+        <v>-0.5760303572740123</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.07246540541097429</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.307663375724543</v>
+        <v>-1.317014983746813</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.060261302608618</v>
+        <v>-3.054926286884438</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5697959519258321</v>
+        <v>-0.5666641487708329</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.0791320572970276</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.195160830127664</v>
+        <v>-1.207057301972388</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.134641992551871</v>
+        <v>-3.131108676171872</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5403117407780219</v>
+        <v>-0.5354600009719322</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.08675818686870235</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.058801098725337</v>
+        <v>-1.068433035981062</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.191874417667401</v>
+        <v>-3.185176447050357</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5494589420675648</v>
+        <v>-0.5453824877977478</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.09435600817398845</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8570779343892095</v>
+        <v>-0.8640117027729349</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.255554415152384</v>
+        <v>-3.250217939380112</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5484310682115652</v>
+        <v>-0.5446933450988388</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1010267000310216</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6435970027769942</v>
+        <v>-0.6496547423061744</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.289639237834647</v>
+        <v>-3.283442063712785</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5101661278450299</v>
+        <v>-0.5042894342791224</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.106273435718991</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.395762599633788</v>
+        <v>-0.4016918549309682</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.332952294475499</v>
+        <v>-3.326103938905092</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4727918168139491</v>
+        <v>-0.4680539607589503</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1105674423705158</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1235512335647701</v>
+        <v>-0.1255120781508605</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.276092911647196</v>
+        <v>-3.268074327531926</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4359504233360499</v>
+        <v>-0.4325076299376872</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1150100173660602</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1565078909928819</v>
+        <v>0.153932366160519</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.265771831692563</v>
+        <v>-3.255115670701066</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4187130955747818</v>
+        <v>-0.414855648518601</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.1211531648513472</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4792340009111589</v>
+        <v>0.4799611048604314</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.217166830746212</v>
+        <v>-3.206862541344624</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3707461356441583</v>
+        <v>-0.3669908919543411</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1305174920195387</v>
       </c>
       <c r="E85" t="n">
-        <v>0.754047172678176</v>
+        <v>0.7531565433427218</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.124957493564873</v>
+        <v>-3.110069383181877</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3284324819215333</v>
+        <v>-0.3260569836776249</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.1434821160093291</v>
       </c>
       <c r="E86" t="n">
-        <v>1.008355429056471</v>
+        <v>1.010676905521016</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.035936171390034</v>
+        <v>-3.018499547064356</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2544051236162805</v>
+        <v>-0.2493431368851</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.1598477736719388</v>
       </c>
       <c r="E87" t="n">
-        <v>1.195891306093239</v>
+        <v>1.198260964144784</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.913911922168293</v>
+        <v>-2.893932624092299</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.21878287029429</v>
+        <v>-0.2161314229611998</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.1782706730556962</v>
       </c>
       <c r="E88" t="n">
-        <v>1.358492481833468</v>
+        <v>1.362589376776558</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.680954679047402</v>
+        <v>-2.660958590418362</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2159357765170181</v>
+        <v>-0.2132069466351097</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.196160318249628</v>
       </c>
       <c r="E89" t="n">
-        <v>1.499813456648703</v>
+        <v>1.505055029295065</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.448490202157191</v>
+        <v>-2.426296011127288</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1465849522469458</v>
+        <v>-0.1444649624189464</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2095346929489517</v>
       </c>
       <c r="E90" t="n">
-        <v>1.615338301793763</v>
+        <v>1.620826622567489</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.16901874695613</v>
+        <v>-2.1451586410545</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1457074633443096</v>
+        <v>-0.14440656049531</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2146295455786749</v>
       </c>
       <c r="E91" t="n">
-        <v>1.658929497595933</v>
+        <v>1.668793582498112</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.883407789532798</v>
+        <v>-1.857108673295305</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.08224063288059941</v>
+        <v>-0.0825749838934175</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.207105170022281</v>
       </c>
       <c r="E92" t="n">
-        <v>1.629176637599396</v>
+        <v>1.641211814012756</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.532417338646665</v>
+        <v>-1.509907777229125</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.09352534457523275</v>
+        <v>-0.09493867112723237</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1836653069291132</v>
       </c>
       <c r="E93" t="n">
-        <v>1.658850654999024</v>
+        <v>1.670034623375385</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.199117560454027</v>
+        <v>-1.173179806119034</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1223306333607705</v>
+        <v>-0.1229350932704067</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1437721045588942</v>
       </c>
       <c r="E94" t="n">
-        <v>1.616852371664035</v>
+        <v>1.630905334539031</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9577905916520006</v>
+        <v>-0.9342998779173706</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1278802761543144</v>
+        <v>-0.1275561454781327</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.08936561837323935</v>
       </c>
       <c r="E95" t="n">
-        <v>1.609895242510855</v>
+        <v>1.624888476356397</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6674249876206241</v>
+        <v>-0.6474281689675385</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1850017376149355</v>
+        <v>-0.1874487782152984</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0253182328282997</v>
       </c>
       <c r="E96" t="n">
-        <v>1.51809325874688</v>
+        <v>1.535752540406421</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.3957669797780607</v>
+        <v>-0.3771353060899748</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2133806923579278</v>
+        <v>-0.2151984522311092</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04132864904689365</v>
       </c>
       <c r="E97" t="n">
-        <v>1.401854450085366</v>
+        <v>1.417066691144544</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1984984221672955</v>
+        <v>-0.1864019237341169</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3147547514059006</v>
+        <v>-0.3156205599238095</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1044933186708618</v>
       </c>
       <c r="E98" t="n">
-        <v>1.32623125921675</v>
+        <v>1.338797893135201</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04009050454415618</v>
+        <v>-0.02680698701306884</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3152424074682641</v>
+        <v>-0.3143152769305371</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1574222057132829</v>
       </c>
       <c r="E99" t="n">
-        <v>1.178725520688426</v>
+        <v>1.194717427428149</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07212295153072278</v>
+        <v>0.08220166350226553</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3265139787300793</v>
+        <v>-0.3279492060034425</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1989646845856985</v>
       </c>
       <c r="E100" t="n">
-        <v>1.019594879260286</v>
+        <v>1.035468522104646</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1618516670056078</v>
+        <v>0.1672567650381518</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3637452050482511</v>
+        <v>-0.3638459483665238</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2283857748783834</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8644516291684191</v>
+        <v>0.8834862761295958</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2114086193072308</v>
+        <v>0.2164574656055931</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.32725422311217</v>
+        <v>-0.3241414005823526</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2515661753153196</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7602304763431744</v>
+        <v>0.7767041989528972</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2302359394394985</v>
+        <v>0.2355957759812243</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3443659867376199</v>
+        <v>-0.3428373163864386</v>
       </c>
     </row>
   </sheetData>
